--- a/WebShop/Default.xlsx
+++ b/WebShop/Default.xlsx
@@ -15,23 +15,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
-  <si>
-    <t>testester1@example.tes</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>tess</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+  <si>
+    <t>testester1111@example.tes</t>
   </si>
   <si>
     <t>ConfirmPassword</t>
   </si>
   <si>
-    <t>tester3@example.tes</t>
-  </si>
-  <si>
     <t>FirstName</t>
   </si>
   <si>
@@ -50,13 +41,7 @@
     <t>Password</t>
   </si>
   <si>
-    <t>tester2@example.tes</t>
-  </si>
-  <si>
     <t>M</t>
-  </si>
-  <si>
-    <t>teser</t>
   </si>
   <si>
     <t>tes</t>
@@ -207,7 +192,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -228,6 +213,26 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -243,15 +248,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -550,97 +558,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="3" width="9.41796875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.31640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.02734375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.35546875" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.078125" style="2" customWidth="1"/>
+    <col min="1" max="3" width="9.41796875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.31640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.02734375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="17.35546875" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9.078125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1">
-      <c r="A1" t="s">
+    <row r="1" ht="14.95" s="4" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -658,7 +628,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.95"/>
   <cols>
-    <col min="1" max="16384" width="9.078125" style="2" customWidth="1"/>
+    <col min="1" max="16384" width="9.078125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1"/>
